--- a/pages/nhan-vien.xlsx
+++ b/pages/nhan-vien.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>STT</t>
   </si>
@@ -86,15 +86,153 @@
     <t>Trạng thái</t>
   </si>
   <si>
+    <t>MNV1722221549</t>
+  </si>
+  <si>
+    <t>Trần Thanh Khương</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>29/07/2002</t>
+  </si>
+  <si>
+    <t>Ninh Kiều Cần Thơ</t>
+  </si>
+  <si>
+    <t>Độc thân</t>
+  </si>
+  <si>
+    <t>29/07/2020</t>
+  </si>
+  <si>
+    <t>Công An Cần Thơ</t>
+  </si>
+  <si>
+    <t>Việt Nam</t>
+  </si>
+  <si>
+    <t>Kinh</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>Nhân viên thời vụ</t>
+  </si>
+  <si>
+    <t>12/12</t>
+  </si>
+  <si>
+    <t>Công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>Công Nghệ Thông Tin</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Đang làm việc</t>
+  </si>
+  <si>
+    <t>MNV1721208753</t>
+  </si>
+  <si>
+    <t>Nguyễn Kim Yến Oanh</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>07/05/2006</t>
+  </si>
+  <si>
+    <t>Rạch Giá Kiên Giang</t>
+  </si>
+  <si>
+    <t>Đính hôn</t>
+  </si>
+  <si>
+    <t>02/02/2022</t>
+  </si>
+  <si>
+    <t>Công An Kiên Giang</t>
+  </si>
+  <si>
+    <t>Lộ Liên Hương Rạch Giá Kiên Giang</t>
+  </si>
+  <si>
+    <t>Nhân viên chính thức</t>
+  </si>
+  <si>
+    <t>Đại học</t>
+  </si>
+  <si>
+    <t>Kinh doanh</t>
+  </si>
+  <si>
+    <t>Bằng cử nhân</t>
+  </si>
+  <si>
+    <t>Văn phòng đại diện</t>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>MNV1721199007</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Phương Yến</t>
+  </si>
+  <si>
+    <t>10/12/1995</t>
+  </si>
+  <si>
+    <t>Kinh 4 Tân Hiệp Kiên Giang</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>Hành chính văn phòng</t>
+  </si>
+  <si>
+    <t>Cử nhân luật</t>
+  </si>
+  <si>
+    <t>MNV1721118920</t>
+  </si>
+  <si>
+    <t>Bùi Phương Huy</t>
+  </si>
+  <si>
+    <t>16/07/2002</t>
+  </si>
+  <si>
+    <t>Vĩnh Hòa Hiệp - Châu Thành - Kiên Giang</t>
+  </si>
+  <si>
+    <t>21/12/2021</t>
+  </si>
+  <si>
+    <t>8/4 Bà Triệu, phường Vĩnh Lạc, thành phố Rạch Giá, tỉnh Kiên Giang</t>
+  </si>
+  <si>
+    <t>Phòng kinh tế - kỹ thuật</t>
+  </si>
+  <si>
     <t>MNV1571124772</t>
   </si>
   <si>
     <t>Trần Văn Triệu</t>
   </si>
   <si>
-    <t>Nam</t>
-  </si>
-  <si>
     <t>20/12/1990</t>
   </si>
   <si>
@@ -107,21 +245,9 @@
     <t>20/12/2000</t>
   </si>
   <si>
-    <t>Việt Nam</t>
-  </si>
-  <si>
-    <t>Kinh</t>
-  </si>
-  <si>
-    <t>Không</t>
-  </si>
-  <si>
     <t>Rạch Giá - Kiên Giang</t>
   </si>
   <si>
-    <t>Nhân viên chính thức</t>
-  </si>
-  <si>
     <t>Cao đẳng</t>
   </si>
   <si>
@@ -134,30 +260,18 @@
     <t>Phòng kinh doanh</t>
   </si>
   <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>Đã nghỉ việc</t>
-  </si>
-  <si>
     <t>MNV1571124337</t>
   </si>
   <si>
     <t>Trần Diễm My</t>
   </si>
   <si>
-    <t>Nữ</t>
-  </si>
-  <si>
     <t>15/10/1997</t>
   </si>
   <si>
     <t>Cần Thơ</t>
   </si>
   <si>
-    <t>Độc thân</t>
-  </si>
-  <si>
     <t>15/10/2015</t>
   </si>
   <si>
@@ -167,24 +281,12 @@
     <t>Châu Thành - Kiên Giang</t>
   </si>
   <si>
-    <t>Nhân viên thời vụ</t>
-  </si>
-  <si>
-    <t>Đại học</t>
-  </si>
-  <si>
     <t>Thương mại điện tử</t>
   </si>
   <si>
-    <t>Bằng cử nhân</t>
-  </si>
-  <si>
     <t>Phòng tổ chức - hành chính</t>
   </si>
   <si>
-    <t>Đang làm việc</t>
-  </si>
-  <si>
     <t>MNV1569906116</t>
   </si>
   <si>
@@ -206,18 +308,6 @@
     <t>Cao học</t>
   </si>
   <si>
-    <t>Hành chính văn phòng</t>
-  </si>
-  <si>
-    <t>Cử nhân luật</t>
-  </si>
-  <si>
-    <t>Văn phòng đại diện</t>
-  </si>
-  <si>
-    <t>Trưởng phòng</t>
-  </si>
-  <si>
     <t>MNV1569905940</t>
   </si>
   <si>
@@ -260,15 +350,15 @@
     <t>Thốt Nốt - Cần Thơ</t>
   </si>
   <si>
-    <t>Đính hôn</t>
-  </si>
-  <si>
     <t>30/09/2012</t>
   </si>
   <si>
     <t>Tiếp tân</t>
   </si>
   <si>
+    <t>Phó phòng</t>
+  </si>
+  <si>
     <t>MNV1569834099</t>
   </si>
   <si>
@@ -294,9 +384,6 @@
   </si>
   <si>
     <t>23/04/2002</t>
-  </si>
-  <si>
-    <t>Kinh doanh</t>
   </si>
   <si>
     <t>Bằng thạc sĩ</t>
@@ -697,30 +784,30 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="47.131348" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="26.993408" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="47.131348" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="78.980713" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="78.980713" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="26.993408" bestFit="true" customWidth="true" style="0"/>
@@ -824,31 +911,31 @@
         <v>28</v>
       </c>
       <c r="H2" s="2">
-        <v>443212354</v>
+        <v>555456485132</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>34</v>
@@ -860,16 +947,16 @@
         <v>36</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -877,70 +964,70 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>777555666</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="2">
-        <v>3716024774</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="P3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -948,70 +1035,70 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2">
-        <v>343214564</v>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1019,70 +1106,70 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="2">
-        <v>3718087744</v>
+        <v>12345678910</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1090,70 +1177,70 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2">
+        <v>443212354</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3718087777</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="V6" s="2" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1161,70 +1248,70 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3716024774</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2">
-        <v>378623143</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="T7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1232,70 +1319,70 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2">
-        <v>567423431</v>
+        <v>343214564</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="R8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="U8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="W8" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1303,70 +1390,70 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2">
-        <v>3718087785</v>
+        <v>3718087744</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="V9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1374,70 +1461,354 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3718087777</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2">
+        <v>378623143</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="E12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2">
+        <v>567423431</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3718087785</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2">
         <v>371807766</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V10" s="2" t="s">
+      <c r="O14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
